--- a/prueba2.xlsx
+++ b/prueba2.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eavch\Escritorio\Servicio Social\Plataforma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaScript\Mapas_Sacmex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8EFA69-DFEF-46F2-8A0D-2DCD7DC59227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42743919-96ED-4428-BF06-E0E52E2DED19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{645F64A3-3737-473D-8A66-6F412DA2B217}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{645F64A3-3737-473D-8A66-6F412DA2B217}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_Hoja1F2I325" hidden="1">Hoja1!$E$1:$E$324</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Hoja1I2L325" hidden="1">Hoja1!$E$1:$H$324</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Hoja1F2I3251" hidden="1">Hoja1!$E$1:$E$324</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Hoja1I2L3251" hidden="1">Hoja1!$E$1:$H$324</definedName>
   </definedNames>
   <calcPr calcId="191029" fullPrecision="0"/>
   <extLst>
@@ -62,7 +62,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Rango">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Hoja1F2I325"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Hoja1F2I3251"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -71,7 +71,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Rango 1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Hoja1I2L325"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Hoja1I2L3251"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -598,12 +598,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -618,10 +624,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,12 +948,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695E5872-4B90-4BF8-891C-CFC87AFEB1AC}">
   <dimension ref="A1:O324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" customWidth="1"/>
@@ -979,171 +989,171 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>1939683064562220</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>-992096918821335</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" s="3" t="str">
         <f>LEFT(C2,2)&amp;"."&amp;MID(C2,3,6)</f>
         <v>19.396830</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H2" s="3" t="str">
         <f t="shared" ref="H2:H65" si="0">LEFT(D2,3)&amp;"."&amp;MID(D2,4,6)</f>
         <v>-99.209691</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>1.9399148081259E+16</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>-991947788000107</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G3" s="3" t="str">
         <f>LEFT(C3,2)&amp;"."&amp;MID(C3,3,6)</f>
         <v>19.399148</v>
       </c>
-      <c r="H3" t="str">
+      <c r="H3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>-99.194778</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>193610376</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>-9919507279999990</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4" s="3" t="str">
         <f>LEFT(C4,2)&amp;"."&amp;MID(C4,3,6)</f>
         <v>19.361037</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>-99.195072</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>1.93401595901625E+16</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>-9920071721076960</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="str">
-        <f t="shared" ref="G5:G65" si="1">LEFT(C5,2)&amp;"."&amp;MID(C5,3,6)</f>
+      <c r="G5" s="3" t="str">
+        <f>LEFT(C5,2)&amp;"."&amp;MID(C5,3,6)</f>
         <v>19.340159</v>
       </c>
-      <c r="H5" t="str">
+      <c r="H5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>-99.200717</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>1.93573836423946E+16</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>-9918185591697690</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="str">
-        <f t="shared" si="1"/>
+      <c r="G6" s="3" t="str">
+        <f t="shared" ref="G5:G65" si="1">LEFT(C6,2)&amp;"."&amp;MID(C6,3,6)</f>
         <v>19.357383</v>
       </c>
-      <c r="H6" t="str">
+      <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>-99.181855</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>193573511</v>
       </c>
-      <c r="D7" s="1">
-        <v>-9922777719999990</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="4">
+        <v>19999990</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>19.357351</v>
       </c>
-      <c r="H7" t="str">
+      <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>-99.227777</v>
+        <v>199.99990</v>
       </c>
       <c r="O7" s="2"/>
     </row>
